--- a/HW02/data/index 2018.xlsx
+++ b/HW02/data/index 2018.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Odin\PycharmProjects\Machine-Learning-HWs\HW02\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://campushaifaac-my.sharepoint.com/personal/nhashe01_campus_haifa_ac_il/Documents/ShitToDo/MLHWs/HW02/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2482528-BD65-4645-B0B6-91C41588B446}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2482528-BD65-4645-B0B6-91C41588B446}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35160" yWindow="5145" windowWidth="21600" windowHeight="11385" tabRatio="1000" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="1000" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="רשימת הגליונות בקובץ זה" sheetId="1" r:id="rId1"/>
@@ -3577,10 +3577,10 @@
       <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="34.140625" style="65" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="34.1796875" style="65" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18">
@@ -3589,8 +3589,8 @@
       </c>
       <c r="B1" s="228"/>
     </row>
-    <row r="2" spans="1:2" ht="13.5" thickBot="1"/>
-    <row r="3" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
+    <row r="2" spans="1:2" ht="13" thickBot="1"/>
+    <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="66" t="s">
         <v>1</v>
       </c>
@@ -3598,7 +3598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="67" t="s">
         <v>2</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" ht="15.5">
       <c r="A5" s="69" t="s">
         <v>6</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" ht="15.5">
       <c r="A6" s="71" t="s">
         <v>367</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15">
+    <row r="7" spans="1:2" ht="15.5">
       <c r="A7" s="71" t="s">
         <v>380</v>
       </c>
@@ -3630,7 +3630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15">
+    <row r="8" spans="1:2" ht="15.5">
       <c r="A8" s="71" t="s">
         <v>3</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15">
+    <row r="9" spans="1:2" ht="15.5">
       <c r="A9" s="71" t="s">
         <v>365</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15">
+    <row r="10" spans="1:2" ht="15.5">
       <c r="A10" s="71" t="s">
         <v>4</v>
       </c>
@@ -3654,7 +3654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="206" customFormat="1" ht="15">
+    <row r="11" spans="1:2" s="206" customFormat="1" ht="15.5">
       <c r="A11" s="71" t="s">
         <v>5</v>
       </c>
@@ -3662,7 +3662,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="206" customFormat="1" ht="15">
+    <row r="12" spans="1:2" s="206" customFormat="1" ht="15.5">
       <c r="A12" s="71" t="s">
         <v>493</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="206" customFormat="1" ht="15">
+    <row r="13" spans="1:2" s="206" customFormat="1" ht="15.5">
       <c r="A13" s="71" t="s">
         <v>558</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
+    <row r="14" spans="1:2" ht="15.5">
       <c r="A14" s="206"/>
       <c r="B14" s="72"/>
     </row>
@@ -3714,17 +3714,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="206" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" style="206" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="206" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" style="206" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" style="206" customWidth="1"/>
+    <col min="2" max="2" width="23.54296875" style="206" customWidth="1"/>
+    <col min="3" max="3" width="25.26953125" style="206" customWidth="1"/>
+    <col min="4" max="4" width="37.453125" style="206" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="18">
@@ -4608,10 +4608,10 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="43.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -4630,7 +4630,7 @@
       <c r="C2" s="223"/>
       <c r="D2" s="223"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" ht="15.5">
       <c r="A4" s="193" t="s">
         <v>536</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15">
+    <row r="5" spans="1:4" ht="15.5">
       <c r="A5" s="217" t="s">
         <v>538</v>
       </c>
@@ -4646,7 +4646,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15">
+    <row r="6" spans="1:4" ht="15.5">
       <c r="A6" s="218" t="s">
         <v>539</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="15.5">
       <c r="A7" s="218" t="s">
         <v>540</v>
       </c>
@@ -4662,7 +4662,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="15.5">
       <c r="A8" s="218" t="s">
         <v>541</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15.5">
       <c r="A9" s="218" t="s">
         <v>542</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="15.5">
       <c r="A10" s="218" t="s">
         <v>543</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15.5">
       <c r="A11" s="218" t="s">
         <v>544</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="15.5">
       <c r="A12" s="218" t="s">
         <v>545</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="15.5">
       <c r="A13" s="218" t="s">
         <v>546</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="15.5">
       <c r="A14" s="219" t="s">
         <v>547</v>
       </c>
@@ -4733,19 +4733,19 @@
   <sheetPr codeName="גיליון2"/>
   <dimension ref="A1:D32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.453125" customWidth="1"/>
     <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="26.1796875" style="22" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="10" customFormat="1" ht="32.1" customHeight="1">
+    <row r="1" spans="1:4" s="10" customFormat="1" ht="32.15" customHeight="1">
       <c r="A1" s="229" t="s">
         <v>441</v>
       </c>
@@ -4756,7 +4756,7 @@
     <row r="2" spans="1:4" ht="13.5" thickBot="1">
       <c r="C2" s="30"/>
     </row>
-    <row r="3" spans="1:4" s="9" customFormat="1" ht="32.1" customHeight="1" thickTop="1" thickBot="1">
+    <row r="3" spans="1:4" s="9" customFormat="1" ht="32.15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A3" s="50" t="s">
         <v>9</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.95" customHeight="1">
+    <row r="4" spans="1:4" ht="16" customHeight="1">
       <c r="A4" s="54"/>
       <c r="B4" s="55" t="s">
         <v>11</v>
@@ -4782,7 +4782,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.95" customHeight="1">
+    <row r="5" spans="1:4" ht="16" customHeight="1">
       <c r="A5" s="58"/>
       <c r="B5" s="59" t="s">
         <v>14</v>
@@ -4794,7 +4794,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.95" customHeight="1">
+    <row r="6" spans="1:4" ht="16" customHeight="1">
       <c r="A6" s="58"/>
       <c r="B6" s="59" t="s">
         <v>16</v>
@@ -4804,7 +4804,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.95" customHeight="1">
+    <row r="7" spans="1:4" ht="16" customHeight="1">
       <c r="A7" s="61" t="s">
         <v>268</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.95" customHeight="1">
+    <row r="8" spans="1:4" ht="16" customHeight="1">
       <c r="A8" s="58"/>
       <c r="B8" s="59" t="s">
         <v>21</v>
@@ -4826,7 +4826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.95" customHeight="1">
+    <row r="9" spans="1:4" ht="16" customHeight="1">
       <c r="A9" s="61" t="s">
         <v>264</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.95" customHeight="1">
+    <row r="10" spans="1:4" ht="16" customHeight="1">
       <c r="A10" s="58"/>
       <c r="B10" s="59" t="s">
         <v>23</v>
@@ -4848,7 +4848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.95" customHeight="1">
+    <row r="11" spans="1:4" ht="16" customHeight="1">
       <c r="A11" s="58"/>
       <c r="B11" s="59" t="s">
         <v>25</v>
@@ -4860,7 +4860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.95" customHeight="1">
+    <row r="12" spans="1:4" ht="16" customHeight="1">
       <c r="A12" s="58"/>
       <c r="B12" s="59" t="s">
         <v>27</v>
@@ -4870,7 +4870,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.95" customHeight="1">
+    <row r="13" spans="1:4" ht="16" customHeight="1">
       <c r="A13" s="58"/>
       <c r="B13" s="59" t="s">
         <v>30</v>
@@ -4882,7 +4882,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.95" customHeight="1">
+    <row r="14" spans="1:4" ht="16" customHeight="1">
       <c r="A14" s="58"/>
       <c r="B14" s="59" t="s">
         <v>32</v>
@@ -4892,7 +4892,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.95" customHeight="1">
+    <row r="15" spans="1:4" ht="16" customHeight="1">
       <c r="A15" s="58"/>
       <c r="B15" s="59" t="s">
         <v>34</v>
@@ -4902,7 +4902,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.95" customHeight="1">
+    <row r="16" spans="1:4" ht="16" customHeight="1">
       <c r="A16" s="58"/>
       <c r="B16" s="59" t="s">
         <v>36</v>
@@ -4912,7 +4912,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.95" customHeight="1">
+    <row r="17" spans="1:4" ht="16" customHeight="1">
       <c r="A17" s="61" t="s">
         <v>38</v>
       </c>
@@ -4926,7 +4926,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.95" customHeight="1">
+    <row r="18" spans="1:4" ht="16" customHeight="1">
       <c r="A18" s="61" t="s">
         <v>40</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.95" customHeight="1">
+    <row r="19" spans="1:4" ht="16" customHeight="1">
       <c r="A19" s="61" t="s">
         <v>42</v>
       </c>
@@ -4950,7 +4950,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.95" customHeight="1">
+    <row r="20" spans="1:4" ht="16" customHeight="1">
       <c r="A20" s="58"/>
       <c r="B20" s="59" t="s">
         <v>45</v>
@@ -4962,7 +4962,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.95" customHeight="1">
+    <row r="21" spans="1:4" ht="16" customHeight="1">
       <c r="A21" s="58"/>
       <c r="B21" s="59" t="s">
         <v>47</v>
@@ -4972,7 +4972,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.95" customHeight="1">
+    <row r="22" spans="1:4" ht="16" customHeight="1">
       <c r="A22" s="58"/>
       <c r="B22" s="59" t="s">
         <v>49</v>
@@ -4984,7 +4984,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15.95" customHeight="1">
+    <row r="23" spans="1:4" ht="16" customHeight="1">
       <c r="A23" s="58"/>
       <c r="B23" s="59" t="s">
         <v>51</v>
@@ -4994,7 +4994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15.95" customHeight="1">
+    <row r="24" spans="1:4" ht="16" customHeight="1">
       <c r="A24" s="58"/>
       <c r="B24" s="59" t="s">
         <v>53</v>
@@ -5004,7 +5004,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15.95" customHeight="1">
+    <row r="25" spans="1:4" ht="16" customHeight="1">
       <c r="A25" s="58"/>
       <c r="B25" s="59" t="s">
         <v>55</v>
@@ -5014,7 +5014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15.95" customHeight="1">
+    <row r="26" spans="1:4" ht="16" customHeight="1">
       <c r="A26" s="58"/>
       <c r="B26" s="59" t="s">
         <v>57</v>
@@ -5024,7 +5024,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15.95" customHeight="1">
+    <row r="27" spans="1:4" ht="16" customHeight="1">
       <c r="A27" s="58"/>
       <c r="B27" s="59" t="s">
         <v>59</v>
@@ -5034,7 +5034,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.95" customHeight="1" thickBot="1">
+    <row r="28" spans="1:4" ht="16" customHeight="1" thickBot="1">
       <c r="A28" s="62"/>
       <c r="B28" s="63" t="s">
         <v>61</v>
@@ -5050,19 +5050,19 @@
       <c r="C29" s="29"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="15.95" customHeight="1">
+    <row r="30" spans="1:4" ht="16" customHeight="1">
       <c r="A30" s="4"/>
       <c r="B30" s="7"/>
       <c r="C30" s="31"/>
       <c r="D30" s="6"/>
     </row>
-    <row r="31" spans="1:4" ht="15.95" customHeight="1">
+    <row r="31" spans="1:4" ht="16" customHeight="1">
       <c r="A31" s="230"/>
       <c r="B31" s="230"/>
       <c r="C31" s="230"/>
       <c r="D31" s="8"/>
     </row>
-    <row r="32" spans="1:4" ht="15.95" customHeight="1">
+    <row r="32" spans="1:4" ht="16" customHeight="1">
       <c r="A32" s="230"/>
       <c r="B32" s="230"/>
       <c r="C32" s="230"/>
@@ -5096,16 +5096,16 @@
   <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="74" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="65" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" style="65" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" style="65" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="17.453125" style="74" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="65" customWidth="1"/>
+    <col min="3" max="3" width="13.81640625" style="65" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.81640625" style="65" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1">
@@ -5114,8 +5114,8 @@
       </c>
       <c r="B1" s="235"/>
     </row>
-    <row r="2" spans="1:2" ht="13.5" thickBot="1"/>
-    <row r="3" spans="1:2" ht="14.25" thickTop="1" thickBot="1">
+    <row r="2" spans="1:2" ht="13" thickBot="1"/>
+    <row r="3" spans="1:2" ht="14" thickTop="1" thickBot="1">
       <c r="A3" s="75" t="s">
         <v>158</v>
       </c>
@@ -5123,7 +5123,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="76" t="s">
         <v>63</v>
       </c>
@@ -5131,7 +5131,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" ht="15.5">
       <c r="A5" s="78" t="s">
         <v>65</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" ht="15.5">
       <c r="A6" s="78" t="s">
         <v>67</v>
       </c>
@@ -5147,7 +5147,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1">
+    <row r="7" spans="1:2" ht="16" thickBot="1">
       <c r="A7" s="80" t="s">
         <v>69</v>
       </c>
@@ -5155,19 +5155,19 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13.5" thickTop="1"/>
+    <row r="8" spans="1:2" ht="13" thickTop="1"/>
     <row r="9" spans="1:2">
       <c r="A9" s="82"/>
       <c r="B9" s="83"/>
     </row>
-    <row r="10" spans="1:2" ht="15.75">
+    <row r="10" spans="1:2" ht="15.5">
       <c r="A10" s="84"/>
       <c r="B10" s="85" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.5" thickBot="1"/>
-    <row r="12" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
+    <row r="11" spans="1:2" ht="13" thickBot="1"/>
+    <row r="12" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="86" t="s">
         <v>72</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15">
+    <row r="13" spans="1:2" ht="15.5">
       <c r="A13" s="88" t="s">
         <v>74</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15">
+    <row r="14" spans="1:2" ht="15.5">
       <c r="A14" s="90" t="s">
         <v>77</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15">
+    <row r="15" spans="1:2" ht="15.5">
       <c r="A15" s="90" t="s">
         <v>79</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15">
+    <row r="16" spans="1:2" ht="15.5">
       <c r="A16" s="90" t="s">
         <v>248</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15">
+    <row r="17" spans="1:2" ht="15.5">
       <c r="A17" s="90" t="s">
         <v>82</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15">
+    <row r="18" spans="1:2" ht="15.5">
       <c r="A18" s="90" t="s">
         <v>382</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15">
+    <row r="19" spans="1:2" ht="15.5">
       <c r="A19" s="90" t="s">
         <v>86</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15">
+    <row r="20" spans="1:2" ht="15.5">
       <c r="A20" s="90" t="s">
         <v>88</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15">
+    <row r="21" spans="1:2" ht="15.5">
       <c r="A21" s="90" t="s">
         <v>90</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15">
+    <row r="22" spans="1:2" ht="15.5">
       <c r="A22" s="90" t="s">
         <v>92</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15">
+    <row r="23" spans="1:2" ht="15.5">
       <c r="A23" s="90" t="s">
         <v>94</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15">
+    <row r="24" spans="1:2" ht="15.5">
       <c r="A24" s="90" t="s">
         <v>96</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15">
+    <row r="25" spans="1:2" ht="15.5">
       <c r="A25" s="90" t="s">
         <v>98</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15">
+    <row r="26" spans="1:2" ht="15.5">
       <c r="A26" s="90" t="s">
         <v>255</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15">
+    <row r="27" spans="1:2" ht="15.5">
       <c r="A27" s="90" t="s">
         <v>101</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15">
+    <row r="28" spans="1:2" ht="15.5">
       <c r="A28" s="90" t="s">
         <v>103</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15">
+    <row r="30" spans="1:2" ht="15.5">
       <c r="A30" s="90" t="s">
         <v>106</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15">
+    <row r="31" spans="1:2" ht="15.5">
       <c r="A31" s="90" t="s">
         <v>108</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15">
+    <row r="32" spans="1:2" ht="15.5">
       <c r="A32" s="90" t="s">
         <v>110</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15">
+    <row r="33" spans="1:2" ht="15.5">
       <c r="A33" s="90" t="s">
         <v>111</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15">
+    <row r="34" spans="1:2" ht="15.5">
       <c r="A34" s="90" t="s">
         <v>113</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15">
+    <row r="35" spans="1:2" ht="15.5">
       <c r="A35" s="90" t="s">
         <v>114</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15">
+    <row r="36" spans="1:2" ht="15.5">
       <c r="A36" s="90" t="s">
         <v>115</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15">
+    <row r="37" spans="1:2" ht="15.5">
       <c r="A37" s="90" t="s">
         <v>117</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15">
+    <row r="38" spans="1:2" ht="15.5">
       <c r="A38" s="90" t="s">
         <v>120</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15">
+    <row r="39" spans="1:2" ht="15.5">
       <c r="A39" s="90" t="s">
         <v>122</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15">
+    <row r="40" spans="1:2" ht="15.5">
       <c r="A40" s="90" t="s">
         <v>124</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15">
+    <row r="41" spans="1:2" ht="15.5">
       <c r="A41" s="90" t="s">
         <v>126</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15">
+    <row r="42" spans="1:2" ht="15.5">
       <c r="A42" s="90" t="s">
         <v>128</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15">
+    <row r="43" spans="1:2" ht="15.5">
       <c r="A43" s="90" t="s">
         <v>363</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15">
+    <row r="44" spans="1:2" ht="15.5">
       <c r="A44" s="224" t="s">
         <v>550</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15">
+    <row r="45" spans="1:2" ht="15.5">
       <c r="A45" s="90" t="s">
         <v>132</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15">
+    <row r="46" spans="1:2" ht="15.5">
       <c r="A46" s="90" t="s">
         <v>133</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15">
+    <row r="47" spans="1:2" ht="15.5">
       <c r="A47" s="90" t="s">
         <v>135</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15">
+    <row r="48" spans="1:2" ht="15.5">
       <c r="A48" s="90" t="s">
         <v>137</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15">
+    <row r="49" spans="1:2" ht="15.5">
       <c r="A49" s="90" t="s">
         <v>139</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15">
+    <row r="50" spans="1:2" ht="15.5">
       <c r="A50" s="90" t="s">
         <v>140</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15">
+    <row r="51" spans="1:2" ht="15.5">
       <c r="A51" s="90" t="s">
         <v>141</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15">
+    <row r="52" spans="1:2" ht="15.5">
       <c r="A52" s="90" t="s">
         <v>142</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15">
+    <row r="53" spans="1:2" ht="15.5">
       <c r="A53" s="90" t="s">
         <v>144</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15">
+    <row r="54" spans="1:2" ht="15.5">
       <c r="A54" s="90" t="s">
         <v>146</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15">
+    <row r="55" spans="1:2" ht="15.5">
       <c r="A55" s="90" t="s">
         <v>148</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15">
+    <row r="56" spans="1:2" ht="15.5">
       <c r="A56" s="90" t="s">
         <v>358</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15">
+    <row r="57" spans="1:2" ht="15.5">
       <c r="A57" s="90" t="s">
         <v>360</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15">
+    <row r="58" spans="1:2" ht="15.5">
       <c r="A58" s="90" t="s">
         <v>476</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15">
+    <row r="59" spans="1:2" ht="15.5">
       <c r="A59" s="90" t="s">
         <v>477</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15">
+    <row r="60" spans="1:2" ht="15.5">
       <c r="A60" s="90" t="s">
         <v>23</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15">
+    <row r="62" spans="1:2" ht="15.5">
       <c r="A62" s="90" t="s">
         <v>152</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15">
+    <row r="63" spans="1:2" ht="15.5">
       <c r="A63" s="90" t="s">
         <v>377</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15">
+    <row r="64" spans="1:2" ht="15.5">
       <c r="A64" s="90" t="s">
         <v>154</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15">
+    <row r="65" spans="1:2" ht="15.5">
       <c r="A65" s="90" t="s">
         <v>155</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" thickBot="1">
+    <row r="66" spans="1:2" ht="16" thickBot="1">
       <c r="A66" s="92" t="s">
         <v>157</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="13.5" thickTop="1"/>
+    <row r="67" spans="1:2" ht="13" thickTop="1"/>
     <row r="68" spans="1:2">
       <c r="A68" s="93"/>
       <c r="B68" s="93"/>
@@ -5635,16 +5635,16 @@
   <sheetPr codeName="גיליון4"/>
   <dimension ref="B1:F73"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView showGridLines="0" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="L53" sqref="L53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
     <col min="2" max="2" width="18" style="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="16.140625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="22" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.1796875" style="28" customWidth="1"/>
+    <col min="5" max="5" width="16.1796875" style="22" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="10" customFormat="1" ht="18">
@@ -5656,14 +5656,14 @@
       <c r="E1" s="236"/>
       <c r="F1" s="236"/>
     </row>
-    <row r="2" spans="2:6" s="10" customFormat="1" ht="16.5" thickBot="1">
+    <row r="2" spans="2:6" s="10" customFormat="1" ht="16" thickBot="1">
       <c r="B2" s="18"/>
       <c r="C2" s="19"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="20"/>
     </row>
-    <row r="3" spans="2:6" s="10" customFormat="1" ht="17.25" thickTop="1" thickBot="1">
+    <row r="3" spans="2:6" s="10" customFormat="1" ht="16.5" thickTop="1" thickBot="1">
       <c r="B3" s="94" t="s">
         <v>229</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="4" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="4" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B4" s="98"/>
       <c r="C4" s="99" t="s">
         <v>162</v>
@@ -5693,7 +5693,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="5" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B5" s="101"/>
       <c r="C5" s="102" t="s">
         <v>164</v>
@@ -5704,7 +5704,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="6" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B6" s="101"/>
       <c r="C6" s="102" t="s">
         <v>170</v>
@@ -5719,7 +5719,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="7" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="7" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B7" s="101"/>
       <c r="C7" s="102" t="s">
         <v>172</v>
@@ -5730,7 +5730,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="8" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="8" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B8" s="101"/>
       <c r="C8" s="102" t="s">
         <v>174</v>
@@ -5741,7 +5741,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="9" spans="2:6" s="10" customFormat="1" ht="25.5">
+    <row r="9" spans="2:6" s="10" customFormat="1" ht="25">
       <c r="B9" s="227" t="s">
         <v>553</v>
       </c>
@@ -5754,7 +5754,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="10" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B10" s="101"/>
       <c r="C10" s="102" t="s">
         <v>177</v>
@@ -5767,7 +5767,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="11" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="11" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B11" s="101"/>
       <c r="C11" s="102" t="s">
         <v>179</v>
@@ -5778,7 +5778,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="12" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B12" s="101"/>
       <c r="C12" s="102" t="s">
         <v>182</v>
@@ -5791,7 +5791,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="13" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="13" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B13" s="101"/>
       <c r="C13" s="102" t="s">
         <v>184</v>
@@ -5802,7 +5802,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="14" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B14" s="101"/>
       <c r="C14" s="102" t="s">
         <v>186</v>
@@ -5813,7 +5813,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="15" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="15" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B15" s="101"/>
       <c r="C15" s="102" t="s">
         <v>88</v>
@@ -5824,7 +5824,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="16" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="16" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B16" s="101"/>
       <c r="C16" s="102" t="s">
         <v>189</v>
@@ -5835,7 +5835,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="17" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="17" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B17" s="101"/>
       <c r="C17" s="102" t="s">
         <v>191</v>
@@ -5846,7 +5846,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="18" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B18" s="101"/>
       <c r="C18" s="102" t="s">
         <v>192</v>
@@ -5857,7 +5857,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="19" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B19" s="101"/>
       <c r="C19" s="102" t="s">
         <v>196</v>
@@ -5870,7 +5870,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="20" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B20" s="101"/>
       <c r="C20" s="102" t="s">
         <v>198</v>
@@ -5881,7 +5881,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="21" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B21" s="101"/>
       <c r="C21" s="102" t="s">
         <v>200</v>
@@ -5892,7 +5892,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="22" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B22" s="101"/>
       <c r="C22" s="102" t="s">
         <v>202</v>
@@ -5903,7 +5903,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="23" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="23" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B23" s="101"/>
       <c r="C23" s="102" t="s">
         <v>204</v>
@@ -5914,7 +5914,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="24" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B24" s="101"/>
       <c r="C24" s="102" t="s">
         <v>206</v>
@@ -5925,7 +5925,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="25" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="25" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B25" s="101"/>
       <c r="C25" s="102" t="s">
         <v>210</v>
@@ -5938,7 +5938,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="26" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="26" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B26" s="101"/>
       <c r="C26" s="102" t="s">
         <v>212</v>
@@ -5949,7 +5949,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="27" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="27" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B27" s="101"/>
       <c r="C27" s="102" t="s">
         <v>214</v>
@@ -5960,7 +5960,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="28" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="28" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B28" s="101"/>
       <c r="C28" s="102" t="s">
         <v>216</v>
@@ -5971,7 +5971,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="29" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="29" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B29" s="101"/>
       <c r="C29" s="102" t="s">
         <v>221</v>
@@ -5986,7 +5986,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="30" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="30" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B30" s="101"/>
       <c r="C30" s="102" t="s">
         <v>96</v>
@@ -5999,7 +5999,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="31" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="31" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B31" s="101"/>
       <c r="C31" s="102" t="s">
         <v>223</v>
@@ -6010,7 +6010,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="32" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B32" s="101"/>
       <c r="C32" s="102" t="s">
         <v>224</v>
@@ -6021,7 +6021,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="33" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="33" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B33" s="101"/>
       <c r="C33" s="102" t="s">
         <v>225</v>
@@ -6032,7 +6032,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="34" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="34" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B34" s="101"/>
       <c r="C34" s="105" t="s">
         <v>165</v>
@@ -6047,7 +6047,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="35" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="35" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B35" s="101"/>
       <c r="C35" s="102" t="s">
         <v>166</v>
@@ -6058,7 +6058,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="36" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="36" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B36" s="101"/>
       <c r="C36" s="102" t="s">
         <v>103</v>
@@ -6071,7 +6071,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="37" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="37" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B37" s="101"/>
       <c r="C37" s="102" t="s">
         <v>171</v>
@@ -6082,7 +6082,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="38" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="38" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B38" s="110"/>
       <c r="C38" s="102" t="s">
         <v>442</v>
@@ -6095,7 +6095,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="39" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="39" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B39" s="110"/>
       <c r="C39" s="102" t="s">
         <v>443</v>
@@ -6106,7 +6106,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="40" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="40" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B40" s="101"/>
       <c r="C40" s="102" t="s">
         <v>178</v>
@@ -6119,7 +6119,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="41" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="41" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B41" s="101"/>
       <c r="C41" s="102" t="s">
         <v>180</v>
@@ -6130,7 +6130,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="42" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="42" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B42" s="101"/>
       <c r="C42" s="102" t="s">
         <v>187</v>
@@ -6145,7 +6145,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="43" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="43" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B43" s="101"/>
       <c r="C43" s="102" t="s">
         <v>188</v>
@@ -6156,7 +6156,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="44" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="44" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B44" s="101"/>
       <c r="C44" s="102" t="s">
         <v>190</v>
@@ -6167,7 +6167,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="45" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="45" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B45" s="101"/>
       <c r="C45" s="102" t="s">
         <v>197</v>
@@ -6182,7 +6182,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="46" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="46" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B46" s="101"/>
       <c r="C46" s="102" t="s">
         <v>199</v>
@@ -6193,7 +6193,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="47" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="47" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B47" s="101"/>
       <c r="C47" s="102" t="s">
         <v>201</v>
@@ -6204,7 +6204,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="48" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="48" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B48" s="101"/>
       <c r="C48" s="102" t="s">
         <v>203</v>
@@ -6215,7 +6215,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="49" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="49" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B49" s="101"/>
       <c r="C49" s="102" t="s">
         <v>207</v>
@@ -6228,7 +6228,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="50" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="50" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B50" s="101"/>
       <c r="C50" s="102" t="s">
         <v>209</v>
@@ -6239,7 +6239,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="51" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="51" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B51" s="101"/>
       <c r="C51" s="102" t="s">
         <v>211</v>
@@ -6250,7 +6250,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="52" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="52" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B52" s="101"/>
       <c r="C52" s="102" t="s">
         <v>213</v>
@@ -6261,7 +6261,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="53" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="53" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B53" s="101"/>
       <c r="C53" s="102" t="s">
         <v>215</v>
@@ -6272,7 +6272,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="54" spans="2:6" s="10" customFormat="1" ht="15">
+    <row r="54" spans="2:6" s="10" customFormat="1" ht="15.5">
       <c r="B54" s="101"/>
       <c r="C54" s="102" t="s">
         <v>217</v>
@@ -6283,7 +6283,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="55" spans="2:6" s="10" customFormat="1" ht="15.75" thickBot="1">
+    <row r="55" spans="2:6" s="10" customFormat="1" ht="16" thickBot="1">
       <c r="B55" s="107"/>
       <c r="C55" s="108" t="s">
         <v>218</v>
@@ -6294,100 +6294,100 @@
         <v>627</v>
       </c>
     </row>
-    <row r="56" spans="2:6" ht="16.5" thickTop="1">
+    <row r="56" spans="2:6" ht="16" thickTop="1">
       <c r="D56" s="23"/>
       <c r="F56" s="14"/>
     </row>
-    <row r="57" spans="2:6" ht="15.75">
+    <row r="57" spans="2:6" ht="15.5">
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
       <c r="F57" s="16"/>
     </row>
-    <row r="58" spans="2:6" ht="15.75">
+    <row r="58" spans="2:6" ht="15.5">
       <c r="C58" s="11"/>
       <c r="D58" s="21"/>
       <c r="E58" s="21"/>
       <c r="F58" s="12"/>
     </row>
-    <row r="59" spans="2:6" ht="15.75">
+    <row r="59" spans="2:6" ht="15.5">
       <c r="C59" s="12"/>
       <c r="D59" s="21"/>
       <c r="E59" s="24"/>
       <c r="F59" s="12"/>
     </row>
-    <row r="60" spans="2:6" ht="15.75">
+    <row r="60" spans="2:6" ht="15.5">
       <c r="C60" s="17"/>
       <c r="D60" s="21"/>
       <c r="E60" s="21"/>
       <c r="F60" s="13"/>
     </row>
-    <row r="61" spans="2:6" ht="15.75">
+    <row r="61" spans="2:6" ht="15.5">
       <c r="D61" s="23"/>
       <c r="E61" s="23"/>
       <c r="F61" s="13"/>
     </row>
-    <row r="62" spans="2:6" ht="15.75">
+    <row r="62" spans="2:6" ht="15.5">
       <c r="D62" s="23"/>
       <c r="E62" s="23"/>
       <c r="F62" s="15"/>
     </row>
-    <row r="63" spans="2:6" ht="15.75">
+    <row r="63" spans="2:6" ht="15.5">
       <c r="D63" s="23"/>
       <c r="E63" s="23"/>
       <c r="F63" s="15"/>
     </row>
-    <row r="64" spans="2:6" ht="15.75">
+    <row r="64" spans="2:6" ht="15.5">
       <c r="D64" s="23"/>
       <c r="E64" s="23"/>
       <c r="F64" s="15"/>
     </row>
-    <row r="65" spans="3:6" ht="15.75">
+    <row r="65" spans="3:6" ht="15.5">
       <c r="C65" s="13"/>
       <c r="D65" s="25"/>
       <c r="E65" s="25"/>
       <c r="F65" s="15"/>
     </row>
-    <row r="66" spans="3:6" ht="15.75">
+    <row r="66" spans="3:6" ht="15.5">
       <c r="C66" s="17"/>
       <c r="D66" s="21"/>
       <c r="E66" s="21"/>
       <c r="F66" s="15"/>
     </row>
-    <row r="67" spans="3:6" ht="15.75">
+    <row r="67" spans="3:6" ht="15.5">
       <c r="C67" s="17"/>
       <c r="D67" s="23"/>
       <c r="E67" s="23"/>
       <c r="F67" s="15"/>
     </row>
-    <row r="68" spans="3:6" ht="15.75">
+    <row r="68" spans="3:6" ht="15.5">
       <c r="C68" s="13"/>
       <c r="D68" s="25"/>
       <c r="E68" s="25"/>
       <c r="F68" s="15"/>
     </row>
-    <row r="69" spans="3:6" ht="15.75">
+    <row r="69" spans="3:6" ht="15.5">
       <c r="C69" s="17"/>
       <c r="D69" s="21"/>
       <c r="E69" s="21"/>
       <c r="F69" s="15"/>
     </row>
-    <row r="70" spans="3:6" ht="15.75">
+    <row r="70" spans="3:6" ht="15.5">
       <c r="D70" s="23"/>
       <c r="E70" s="23"/>
       <c r="F70" s="15"/>
     </row>
-    <row r="71" spans="3:6" ht="15.75">
+    <row r="71" spans="3:6" ht="15.5">
       <c r="D71" s="23"/>
       <c r="E71" s="23"/>
       <c r="F71" s="15"/>
     </row>
-    <row r="72" spans="3:6" ht="15.75">
+    <row r="72" spans="3:6" ht="15.5">
       <c r="C72" s="3"/>
       <c r="D72" s="27"/>
       <c r="E72" s="26"/>
       <c r="F72" s="3"/>
     </row>
-    <row r="73" spans="3:6" ht="15.75">
+    <row r="73" spans="3:6" ht="15.5">
       <c r="C73" s="3"/>
       <c r="D73" s="27"/>
       <c r="E73" s="26"/>
@@ -6430,14 +6430,14 @@
   <sheetPr codeName="גיליון5"/>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="21.7109375" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="21.7265625" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75" customHeight="1">
@@ -6446,11 +6446,11 @@
       </c>
       <c r="B1" s="235"/>
     </row>
-    <row r="2" spans="1:2" ht="16.5" thickBot="1">
+    <row r="2" spans="1:2" ht="16" thickBot="1">
       <c r="A2" s="65"/>
       <c r="B2" s="111"/>
     </row>
-    <row r="3" spans="1:2" ht="17.25" thickTop="1" thickBot="1">
+    <row r="3" spans="1:2" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="112" t="s">
         <v>158</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
+    <row r="4" spans="1:2" ht="15.5">
       <c r="A4" s="76" t="s">
         <v>371</v>
       </c>
@@ -6466,7 +6466,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
+    <row r="5" spans="1:2" ht="15.5">
       <c r="A5" s="113" t="s">
         <v>381</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
+    <row r="6" spans="1:2" ht="15.5">
       <c r="A6" s="78" t="s">
         <v>552</v>
       </c>
@@ -6482,7 +6482,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15">
+    <row r="7" spans="1:2" ht="15.5">
       <c r="A7" s="78" t="s">
         <v>234</v>
       </c>
@@ -6509,14 +6509,14 @@
   <sheetPr codeName="גיליון6"/>
   <dimension ref="A1:E170"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" style="65" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="144" customWidth="1"/>
+    <col min="1" max="1" width="27.54296875" style="65" customWidth="1"/>
+    <col min="2" max="2" width="17.1796875" style="144" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18">
@@ -6528,13 +6528,13 @@
       <c r="D1" s="32"/>
       <c r="E1" s="32"/>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickBot="1">
+    <row r="2" spans="1:5" ht="16" thickBot="1">
       <c r="B2" s="115"/>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
       <c r="E2" s="32"/>
     </row>
-    <row r="3" spans="1:5" ht="17.25" thickTop="1" thickBot="1">
+    <row r="3" spans="1:5" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="116" t="s">
         <v>236</v>
       </c>
@@ -6545,7 +6545,7 @@
       <c r="D3" s="33"/>
       <c r="E3" s="34"/>
     </row>
-    <row r="4" spans="1:5" ht="15">
+    <row r="4" spans="1:5" ht="15.5">
       <c r="A4" s="118" t="s">
         <v>11</v>
       </c>
@@ -6556,7 +6556,7 @@
       <c r="D4" s="33"/>
       <c r="E4" s="34"/>
     </row>
-    <row r="5" spans="1:5" ht="15">
+    <row r="5" spans="1:5" ht="15.5">
       <c r="A5" s="120" t="s">
         <v>238</v>
       </c>
@@ -6567,7 +6567,7 @@
       <c r="D5" s="33"/>
       <c r="E5" s="34"/>
     </row>
-    <row r="6" spans="1:5" ht="15">
+    <row r="6" spans="1:5" ht="15.5">
       <c r="A6" s="120" t="s">
         <v>106</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
+    <row r="7" spans="1:5" ht="15.5">
       <c r="A7" s="120" t="s">
         <v>243</v>
       </c>
@@ -6583,7 +6583,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="40" customFormat="1" ht="15.75">
+    <row r="8" spans="1:5" s="40" customFormat="1" ht="15.5">
       <c r="A8" s="122" t="s">
         <v>245</v>
       </c>
@@ -6591,7 +6591,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="15">
+    <row r="9" spans="1:5" ht="15.5">
       <c r="A9" s="120" t="s">
         <v>471</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15">
+    <row r="10" spans="1:5" ht="15.5">
       <c r="A10" s="120" t="s">
         <v>382</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15">
+    <row r="11" spans="1:5" ht="15.5">
       <c r="A11" s="120" t="s">
         <v>84</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="15">
+    <row r="12" spans="1:5" ht="15.5">
       <c r="A12" s="120" t="s">
         <v>86</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15">
+    <row r="13" spans="1:5" ht="15.5">
       <c r="A13" s="120" t="s">
         <v>148</v>
       </c>
@@ -6631,7 +6631,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="15">
+    <row r="14" spans="1:5" ht="15.5">
       <c r="A14" s="120" t="s">
         <v>79</v>
       </c>
@@ -6639,7 +6639,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="15">
+    <row r="15" spans="1:5" ht="15.5">
       <c r="A15" s="120" t="s">
         <v>257</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="15">
+    <row r="16" spans="1:5" ht="15.5">
       <c r="A16" s="120" t="s">
         <v>260</v>
       </c>
@@ -6655,7 +6655,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15">
+    <row r="17" spans="1:2" ht="15.5">
       <c r="A17" s="120" t="s">
         <v>77</v>
       </c>
@@ -6663,7 +6663,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15">
+    <row r="18" spans="1:2" ht="15.5">
       <c r="A18" s="120" t="s">
         <v>436</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15">
+    <row r="19" spans="1:2" ht="15.5">
       <c r="A19" s="120" t="s">
         <v>264</v>
       </c>
@@ -6679,7 +6679,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15">
+    <row r="20" spans="1:2" ht="15.5">
       <c r="A20" s="120" t="s">
         <v>149</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15">
+    <row r="21" spans="1:2" ht="15.5">
       <c r="A21" s="120" t="s">
         <v>21</v>
       </c>
@@ -6695,7 +6695,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15">
+    <row r="22" spans="1:2" ht="15.5">
       <c r="A22" s="120" t="s">
         <v>82</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15">
+    <row r="23" spans="1:2" ht="15.5">
       <c r="A23" s="120" t="s">
         <v>268</v>
       </c>
@@ -6711,7 +6711,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15">
+    <row r="24" spans="1:2" ht="15.5">
       <c r="A24" s="120" t="s">
         <v>14</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15">
+    <row r="25" spans="1:2" ht="15.5">
       <c r="A25" s="120" t="s">
         <v>75</v>
       </c>
@@ -6727,7 +6727,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15">
+    <row r="26" spans="1:2" ht="15.5">
       <c r="A26" s="120" t="s">
         <v>23</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15">
+    <row r="27" spans="1:2" ht="15.5">
       <c r="A27" s="120" t="s">
         <v>150</v>
       </c>
@@ -6743,7 +6743,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15">
+    <row r="28" spans="1:2" ht="15.5">
       <c r="A28" s="120" t="s">
         <v>276</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15">
+    <row r="29" spans="1:2" ht="15.5">
       <c r="A29" s="120" t="s">
         <v>467</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15">
+    <row r="30" spans="1:2" ht="15.5">
       <c r="A30" s="120" t="s">
         <v>483</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15">
+    <row r="31" spans="1:2" ht="15.5">
       <c r="A31" s="120" t="s">
         <v>278</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15">
+    <row r="32" spans="1:2" ht="15.5">
       <c r="A32" s="120" t="s">
         <v>281</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15">
+    <row r="33" spans="1:2" ht="15.5">
       <c r="A33" s="120" t="s">
         <v>74</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15">
+    <row r="34" spans="1:2" ht="15.5">
       <c r="A34" s="120" t="s">
         <v>285</v>
       </c>
@@ -6799,7 +6799,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15">
+    <row r="35" spans="1:2" ht="15.5">
       <c r="A35" s="120" t="s">
         <v>288</v>
       </c>
@@ -6807,7 +6807,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15">
+    <row r="36" spans="1:2" ht="15.5">
       <c r="A36" s="120" t="s">
         <v>290</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15">
+    <row r="37" spans="1:2" ht="15.5">
       <c r="A37" s="120" t="s">
         <v>292</v>
       </c>
@@ -6823,7 +6823,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15">
+    <row r="38" spans="1:2" ht="15.5">
       <c r="A38" s="120" t="s">
         <v>294</v>
       </c>
@@ -6831,7 +6831,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15">
+    <row r="39" spans="1:2" ht="15.5">
       <c r="A39" s="120" t="s">
         <v>296</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15">
+    <row r="40" spans="1:2" ht="15.5">
       <c r="A40" s="120" t="s">
         <v>297</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15">
+    <row r="41" spans="1:2" ht="15.5">
       <c r="A41" s="120" t="s">
         <v>298</v>
       </c>
@@ -6855,7 +6855,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15">
+    <row r="42" spans="1:2" ht="15.5">
       <c r="A42" s="120" t="s">
         <v>299</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15">
+    <row r="43" spans="1:2" ht="15.5">
       <c r="A43" s="120" t="s">
         <v>301</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="40" customFormat="1" ht="15.75">
+    <row r="44" spans="1:2" s="40" customFormat="1" ht="15.5">
       <c r="A44" s="122" t="s">
         <v>303</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15">
+    <row r="45" spans="1:2" ht="15.5">
       <c r="A45" s="120" t="s">
         <v>90</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15">
+    <row r="46" spans="1:2" ht="15.5">
       <c r="A46" s="120" t="s">
         <v>27</v>
       </c>
@@ -6895,7 +6895,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15">
+    <row r="47" spans="1:2" ht="15.5">
       <c r="A47" s="120" t="s">
         <v>96</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15">
+    <row r="48" spans="1:2" ht="15.5">
       <c r="A48" s="120" t="s">
         <v>25</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="15">
+    <row r="49" spans="1:5" ht="15.5">
       <c r="A49" s="120" t="s">
         <v>434</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15">
+    <row r="50" spans="1:5" ht="15.5">
       <c r="A50" s="120" t="s">
         <v>435</v>
       </c>
@@ -6928,7 +6928,7 @@
       </c>
       <c r="C50" s="35"/>
     </row>
-    <row r="51" spans="1:5" ht="15">
+    <row r="51" spans="1:5" ht="15.5">
       <c r="A51" s="120" t="s">
         <v>472</v>
       </c>
@@ -6937,7 +6937,7 @@
       </c>
       <c r="C51" s="35"/>
     </row>
-    <row r="52" spans="1:5" ht="15">
+    <row r="52" spans="1:5" ht="15.5">
       <c r="A52" s="120" t="s">
         <v>490</v>
       </c>
@@ -6946,7 +6946,7 @@
       </c>
       <c r="C52" s="35"/>
     </row>
-    <row r="53" spans="1:5" ht="15">
+    <row r="53" spans="1:5" ht="15.5">
       <c r="A53" s="120" t="s">
         <v>310</v>
       </c>
@@ -6955,7 +6955,7 @@
       </c>
       <c r="C53" s="36"/>
     </row>
-    <row r="54" spans="1:5" ht="15">
+    <row r="54" spans="1:5" ht="15.5">
       <c r="A54" s="120" t="s">
         <v>311</v>
       </c>
@@ -6964,7 +6964,7 @@
       </c>
       <c r="C54" s="36"/>
     </row>
-    <row r="55" spans="1:5" ht="15">
+    <row r="55" spans="1:5" ht="15.5">
       <c r="A55" s="120" t="s">
         <v>151</v>
       </c>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="C55" s="36"/>
     </row>
-    <row r="56" spans="1:5" ht="15">
+    <row r="56" spans="1:5" ht="15.5">
       <c r="A56" s="120" t="s">
         <v>312</v>
       </c>
@@ -6982,7 +6982,7 @@
       </c>
       <c r="C56" s="36"/>
     </row>
-    <row r="57" spans="1:5" ht="15">
+    <row r="57" spans="1:5" ht="15.5">
       <c r="A57" s="120" t="s">
         <v>313</v>
       </c>
@@ -6993,7 +6993,7 @@
       <c r="D57" s="37"/>
       <c r="E57" s="32"/>
     </row>
-    <row r="58" spans="1:5" ht="15">
+    <row r="58" spans="1:5" ht="15.5">
       <c r="A58" s="124" t="s">
         <v>466</v>
       </c>
@@ -7004,7 +7004,7 @@
       <c r="D58" s="37"/>
       <c r="E58" s="32"/>
     </row>
-    <row r="59" spans="1:5" s="40" customFormat="1" ht="15.75">
+    <row r="59" spans="1:5" s="40" customFormat="1" ht="15.5">
       <c r="A59" s="122" t="s">
         <v>314</v>
       </c>
@@ -7015,7 +7015,7 @@
       <c r="D59" s="42"/>
       <c r="E59" s="43"/>
     </row>
-    <row r="60" spans="1:5" ht="15">
+    <row r="60" spans="1:5" ht="15.5">
       <c r="A60" s="126" t="s">
         <v>101</v>
       </c>
@@ -7026,7 +7026,7 @@
       <c r="D60" s="37"/>
       <c r="E60" s="32"/>
     </row>
-    <row r="61" spans="1:5" ht="15">
+    <row r="61" spans="1:5" ht="15.5">
       <c r="A61" s="126" t="s">
         <v>239</v>
       </c>
@@ -7037,7 +7037,7 @@
       <c r="D61" s="37"/>
       <c r="E61" s="32"/>
     </row>
-    <row r="62" spans="1:5" ht="15">
+    <row r="62" spans="1:5" ht="15.5">
       <c r="A62" s="126" t="s">
         <v>241</v>
       </c>
@@ -7048,7 +7048,7 @@
       <c r="D62" s="37"/>
       <c r="E62" s="32"/>
     </row>
-    <row r="63" spans="1:5" ht="15">
+    <row r="63" spans="1:5" ht="15.5">
       <c r="A63" s="126" t="s">
         <v>244</v>
       </c>
@@ -7059,7 +7059,7 @@
       <c r="D63" s="37"/>
       <c r="E63" s="32"/>
     </row>
-    <row r="64" spans="1:5" ht="15">
+    <row r="64" spans="1:5" ht="15.5">
       <c r="A64" s="126" t="s">
         <v>246</v>
       </c>
@@ -7070,7 +7070,7 @@
       <c r="D64" s="36"/>
       <c r="E64" s="39"/>
     </row>
-    <row r="65" spans="1:5" ht="15">
+    <row r="65" spans="1:5" ht="15.5">
       <c r="A65" s="126" t="s">
         <v>247</v>
       </c>
@@ -7081,7 +7081,7 @@
       <c r="D65" s="36"/>
       <c r="E65" s="39"/>
     </row>
-    <row r="66" spans="1:5" ht="15">
+    <row r="66" spans="1:5" ht="15.5">
       <c r="A66" s="126" t="s">
         <v>249</v>
       </c>
@@ -7092,7 +7092,7 @@
       <c r="D66" s="39"/>
       <c r="E66" s="39"/>
     </row>
-    <row r="67" spans="1:5" ht="15">
+    <row r="67" spans="1:5" ht="15.5">
       <c r="A67" s="126" t="s">
         <v>251</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="15">
+    <row r="68" spans="1:5" ht="15.5">
       <c r="A68" s="126" t="s">
         <v>98</v>
       </c>
@@ -7108,7 +7108,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15">
+    <row r="69" spans="1:5" ht="15.5">
       <c r="A69" s="126" t="s">
         <v>32</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="70" spans="1:5" ht="15">
+    <row r="70" spans="1:5" ht="15.5">
       <c r="A70" s="126" t="s">
         <v>473</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15">
+    <row r="71" spans="1:5" ht="15.5">
       <c r="A71" s="126" t="s">
         <v>255</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15">
+    <row r="72" spans="1:5" ht="15.5">
       <c r="A72" s="126" t="s">
         <v>258</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15">
+    <row r="73" spans="1:5" ht="15.5">
       <c r="A73" s="126" t="s">
         <v>36</v>
       </c>
@@ -7148,7 +7148,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="15">
+    <row r="74" spans="1:5" ht="15.5">
       <c r="A74" s="126" t="s">
         <v>34</v>
       </c>
@@ -7156,7 +7156,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="15">
+    <row r="75" spans="1:5" ht="15.5">
       <c r="A75" s="126" t="s">
         <v>263</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="15">
+    <row r="76" spans="1:5" ht="15.5">
       <c r="A76" s="126" t="s">
         <v>103</v>
       </c>
@@ -7172,7 +7172,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="15">
+    <row r="77" spans="1:5" ht="15.5">
       <c r="A77" s="126" t="s">
         <v>265</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="15">
+    <row r="78" spans="1:5" ht="15.5">
       <c r="A78" s="126" t="s">
         <v>437</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="15">
+    <row r="79" spans="1:5" ht="15.5">
       <c r="A79" s="126" t="s">
         <v>269</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="15">
+    <row r="80" spans="1:5" ht="15.5">
       <c r="A80" s="126" t="s">
         <v>270</v>
       </c>
@@ -7204,7 +7204,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15">
+    <row r="81" spans="1:2" ht="15.5">
       <c r="A81" s="126" t="s">
         <v>378</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15">
+    <row r="82" spans="1:2" ht="15.5">
       <c r="A82" s="126" t="s">
         <v>470</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15">
+    <row r="83" spans="1:2" ht="15.5">
       <c r="A83" s="126" t="s">
         <v>555</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15">
+    <row r="84" spans="1:2" ht="15.5">
       <c r="A84" s="126" t="s">
         <v>556</v>
       </c>
@@ -7236,7 +7236,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15">
+    <row r="85" spans="1:2" ht="15.5">
       <c r="A85" s="126" t="s">
         <v>557</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15">
+    <row r="86" spans="1:2" ht="15.5">
       <c r="A86" s="126" t="s">
         <v>554</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15">
+    <row r="87" spans="1:2" ht="15.5">
       <c r="A87" s="126" t="s">
         <v>271</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15">
+    <row r="88" spans="1:2" ht="15.5">
       <c r="A88" s="126" t="s">
         <v>273</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15">
+    <row r="89" spans="1:2" ht="15.5">
       <c r="A89" s="128" t="s">
         <v>104</v>
       </c>
@@ -7276,7 +7276,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15">
+    <row r="90" spans="1:2" ht="15.5">
       <c r="A90" s="128" t="s">
         <v>131</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15">
+    <row r="91" spans="1:2" ht="15.5">
       <c r="A91" s="128" t="s">
         <v>113</v>
       </c>
@@ -7292,7 +7292,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15">
+    <row r="92" spans="1:2" ht="15.5">
       <c r="A92" s="126" t="s">
         <v>379</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15">
+    <row r="93" spans="1:2" ht="15.5">
       <c r="A93" s="126" t="s">
         <v>279</v>
       </c>
@@ -7308,7 +7308,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15">
+    <row r="94" spans="1:2" ht="15.5">
       <c r="A94" s="126" t="s">
         <v>282</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15">
+    <row r="95" spans="1:2" ht="15.5">
       <c r="A95" s="126" t="s">
         <v>166</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="96" spans="1:2" s="40" customFormat="1" ht="15.75">
+    <row r="96" spans="1:2" s="40" customFormat="1" ht="15.5">
       <c r="A96" s="129" t="s">
         <v>286</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15">
+    <row r="97" spans="1:2" ht="15.5">
       <c r="A97" s="126" t="s">
         <v>291</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15">
+    <row r="98" spans="1:2" ht="15.5">
       <c r="A98" s="126" t="s">
         <v>293</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15">
+    <row r="99" spans="1:2" ht="15.5">
       <c r="A99" s="126" t="s">
         <v>295</v>
       </c>
@@ -7356,7 +7356,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15">
+    <row r="100" spans="1:2" ht="15.5">
       <c r="A100" s="126" t="s">
         <v>438</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15">
+    <row r="101" spans="1:2" ht="15.5">
       <c r="A101" s="126" t="s">
         <v>42</v>
       </c>
@@ -7372,7 +7372,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15">
+    <row r="102" spans="1:2" ht="15.5">
       <c r="A102" s="126" t="s">
         <v>40</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15">
+    <row r="103" spans="1:2" ht="15.5">
       <c r="A103" s="126" t="s">
         <v>300</v>
       </c>
@@ -7388,7 +7388,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15">
+    <row r="104" spans="1:2" ht="15.5">
       <c r="A104" s="126" t="s">
         <v>383</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15">
+    <row r="105" spans="1:2" ht="15.5">
       <c r="A105" s="126" t="s">
         <v>496</v>
       </c>
@@ -7404,7 +7404,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15">
+    <row r="106" spans="1:2" ht="15.5">
       <c r="A106" s="126" t="s">
         <v>495</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15">
+    <row r="107" spans="1:2" ht="15.5">
       <c r="A107" s="126" t="s">
         <v>305</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="108" spans="1:2" s="40" customFormat="1" ht="15.75">
+    <row r="108" spans="1:2" s="40" customFormat="1" ht="15.5">
       <c r="A108" s="129" t="s">
         <v>307</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15">
+    <row r="109" spans="1:2" ht="15.5">
       <c r="A109" s="126" t="s">
         <v>237</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15">
+    <row r="110" spans="1:2" ht="15.5">
       <c r="A110" s="126" t="s">
         <v>240</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15">
+    <row r="111" spans="1:2" ht="15.5">
       <c r="A111" s="126" t="s">
         <v>242</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15">
+    <row r="112" spans="1:2" ht="15.5">
       <c r="A112" s="126" t="s">
         <v>45</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15">
+    <row r="113" spans="1:2" ht="15.5">
       <c r="A113" s="126" t="s">
         <v>47</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15">
+    <row r="114" spans="1:2" ht="15.5">
       <c r="A114" s="126" t="s">
         <v>439</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15">
+    <row r="115" spans="1:2" ht="15.5">
       <c r="A115" s="126" t="s">
         <v>250</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15">
+    <row r="116" spans="1:2" ht="15.5">
       <c r="A116" s="126" t="s">
         <v>142</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15">
+    <row r="117" spans="1:2" ht="15.5">
       <c r="A117" s="126" t="s">
         <v>252</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15">
+    <row r="118" spans="1:2" ht="15.5">
       <c r="A118" s="126" t="s">
         <v>253</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15">
+    <row r="119" spans="1:2" ht="15.5">
       <c r="A119" s="126" t="s">
         <v>254</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15">
+    <row r="120" spans="1:2" ht="15.5">
       <c r="A120" s="126" t="s">
         <v>256</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15">
+    <row r="121" spans="1:2" ht="15.5">
       <c r="A121" s="126" t="s">
         <v>259</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15">
+    <row r="122" spans="1:2" ht="15.5">
       <c r="A122" s="126" t="s">
         <v>261</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15">
+    <row r="123" spans="1:2" ht="15.5">
       <c r="A123" s="126" t="s">
         <v>262</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15">
+    <row r="124" spans="1:2" ht="15.5">
       <c r="A124" s="126" t="s">
         <v>117</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15">
+    <row r="125" spans="1:2" ht="15.5">
       <c r="A125" s="126" t="s">
         <v>118</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15">
+    <row r="126" spans="1:2" ht="15.5">
       <c r="A126" s="61" t="s">
         <v>266</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15">
+    <row r="127" spans="1:2" ht="15.5">
       <c r="A127" s="61" t="s">
         <v>267</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15">
+    <row r="128" spans="1:2" ht="15.5">
       <c r="A128" s="61" t="s">
         <v>361</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>620</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15">
+    <row r="129" spans="1:2" ht="15.5">
       <c r="A129" s="61" t="s">
         <v>356</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15">
+    <row r="130" spans="1:2" ht="15.5">
       <c r="A130" s="61" t="s">
         <v>369</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15">
+    <row r="131" spans="1:2" ht="15.5">
       <c r="A131" s="61" t="s">
         <v>132</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15">
+    <row r="132" spans="1:2" ht="15.5">
       <c r="A132" s="61" t="s">
         <v>120</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15">
+    <row r="133" spans="1:2" ht="15.5">
       <c r="A133" s="61" t="s">
         <v>122</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15">
+    <row r="134" spans="1:2" ht="15.5">
       <c r="A134" s="61" t="s">
         <v>124</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15">
+    <row r="135" spans="1:2" ht="15.5">
       <c r="A135" s="61" t="s">
         <v>139</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15">
+    <row r="136" spans="1:2" ht="15.5">
       <c r="A136" s="61" t="s">
         <v>491</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15">
+    <row r="137" spans="1:2" ht="15.5">
       <c r="A137" s="126" t="s">
         <v>492</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15">
+    <row r="138" spans="1:2" ht="15.5">
       <c r="A138" s="126" t="s">
         <v>464</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15">
+    <row r="139" spans="1:2" ht="15.5">
       <c r="A139" s="126" t="s">
         <v>465</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="140" spans="1:2" s="40" customFormat="1" ht="15.75">
+    <row r="140" spans="1:2" s="40" customFormat="1" ht="15.5">
       <c r="A140" s="129" t="s">
         <v>272</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15">
+    <row r="141" spans="1:2" ht="15.5">
       <c r="A141" s="126" t="s">
         <v>274</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15">
+    <row r="142" spans="1:2" ht="15.5">
       <c r="A142" s="126" t="s">
         <v>275</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>702</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15">
+    <row r="143" spans="1:2" ht="15.5">
       <c r="A143" s="126" t="s">
         <v>277</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15">
+    <row r="144" spans="1:2" ht="15.5">
       <c r="A144" s="126" t="s">
         <v>280</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15">
+    <row r="145" spans="1:2" ht="15.5">
       <c r="A145" s="126" t="s">
         <v>283</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15">
+    <row r="146" spans="1:2" ht="15.5">
       <c r="A146" s="126" t="s">
         <v>284</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15">
+    <row r="147" spans="1:2" ht="15.5">
       <c r="A147" s="126" t="s">
         <v>287</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15">
+    <row r="148" spans="1:2" ht="15.5">
       <c r="A148" s="126" t="s">
         <v>289</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15">
+    <row r="149" spans="1:2" ht="15.5">
       <c r="A149" s="126" t="s">
         <v>440</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15">
+    <row r="150" spans="1:2" ht="15.5">
       <c r="A150" s="126" t="s">
         <v>151</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15">
+    <row r="151" spans="1:2" ht="15.5">
       <c r="A151" s="126" t="s">
         <v>152</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15">
+    <row r="152" spans="1:2" ht="15.5">
       <c r="A152" s="126" t="s">
         <v>154</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15">
+    <row r="153" spans="1:2" ht="15.5">
       <c r="A153" s="126" t="s">
         <v>153</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15">
+    <row r="154" spans="1:2" ht="15.5">
       <c r="A154" s="126" t="s">
         <v>155</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15">
+    <row r="155" spans="1:2" ht="15.5">
       <c r="A155" s="126" t="s">
         <v>157</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15">
+    <row r="156" spans="1:2" ht="15.5">
       <c r="A156" s="126" t="s">
         <v>302</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15">
+    <row r="157" spans="1:2" ht="15.5">
       <c r="A157" s="126" t="s">
         <v>304</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15">
+    <row r="158" spans="1:2" ht="15.5">
       <c r="A158" s="61" t="s">
         <v>306</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15">
+    <row r="159" spans="1:2" ht="15.5">
       <c r="A159" s="61" t="s">
         <v>308</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15">
+    <row r="160" spans="1:2" ht="15.5">
       <c r="A160" s="61" t="s">
         <v>309</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15">
+    <row r="161" spans="1:2" ht="15.5">
       <c r="A161" s="175" t="s">
         <v>478</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="162" spans="1:2" s="40" customFormat="1" ht="16.5" thickBot="1">
+    <row r="162" spans="1:2" s="40" customFormat="1" ht="16" thickBot="1">
       <c r="A162" s="132" t="s">
         <v>316</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="13.5" thickTop="1">
+    <row r="163" spans="1:2" ht="13" thickTop="1">
       <c r="A163" s="134"/>
       <c r="B163" s="135"/>
     </row>
@@ -7915,12 +7915,12 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="74" customWidth="1"/>
+    <col min="1" max="1" width="38.1796875" style="74" customWidth="1"/>
     <col min="2" max="2" width="16" style="74" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" style="65" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" style="164" customWidth="1"/>
+    <col min="3" max="3" width="16.54296875" style="65" customWidth="1"/>
+    <col min="4" max="4" width="13.1796875" style="164" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18">
@@ -7931,13 +7931,13 @@
       <c r="C1" s="250"/>
       <c r="D1" s="250"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" thickBot="1">
+    <row r="2" spans="1:4" ht="13" thickBot="1">
       <c r="A2" s="93"/>
       <c r="B2" s="93"/>
       <c r="C2" s="83"/>
       <c r="D2" s="145"/>
     </row>
-    <row r="3" spans="1:4" ht="15.95" customHeight="1" thickTop="1">
+    <row r="3" spans="1:4" ht="16" customHeight="1" thickTop="1">
       <c r="A3" s="146" t="s">
         <v>327</v>
       </c>
@@ -7951,7 +7951,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.95" customHeight="1">
+    <row r="4" spans="1:4" ht="16" customHeight="1">
       <c r="A4" s="89" t="s">
         <v>318</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.95" customHeight="1">
+    <row r="5" spans="1:4" ht="16" customHeight="1">
       <c r="A5" s="152" t="s">
         <v>320</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="15.95" customHeight="1">
+    <row r="6" spans="1:4" ht="16" customHeight="1">
       <c r="A6" s="152" t="s">
         <v>321</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="15.95" customHeight="1">
+    <row r="7" spans="1:4" ht="16" customHeight="1">
       <c r="A7" s="152" t="s">
         <v>322</v>
       </c>
@@ -7995,7 +7995,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="15.95" customHeight="1">
+    <row r="8" spans="1:4" ht="16" customHeight="1">
       <c r="A8" s="152" t="s">
         <v>320</v>
       </c>
@@ -8007,7 +8007,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="15.95" customHeight="1">
+    <row r="9" spans="1:4" ht="16" customHeight="1">
       <c r="A9" s="152" t="s">
         <v>321</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.95" customHeight="1">
+    <row r="10" spans="1:4" ht="16" customHeight="1">
       <c r="A10" s="152" t="s">
         <v>322</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="15.95" customHeight="1">
+    <row r="11" spans="1:4" ht="16" customHeight="1">
       <c r="A11" s="152" t="s">
         <v>320</v>
       </c>
@@ -8039,7 +8039,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="15.95" customHeight="1">
+    <row r="12" spans="1:4" ht="16" customHeight="1">
       <c r="A12" s="152" t="s">
         <v>321</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="15.95" customHeight="1">
+    <row r="13" spans="1:4" ht="16" customHeight="1">
       <c r="A13" s="152" t="s">
         <v>322</v>
       </c>
@@ -8059,7 +8059,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="15.95" customHeight="1">
+    <row r="14" spans="1:4" ht="16" customHeight="1">
       <c r="A14" s="152" t="s">
         <v>482</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="15.95" customHeight="1">
+    <row r="15" spans="1:4" ht="16" customHeight="1">
       <c r="A15" s="152" t="s">
         <v>318</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="15.95" customHeight="1">
+    <row r="16" spans="1:4" ht="16" customHeight="1">
       <c r="A16" s="152" t="s">
         <v>320</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.95" customHeight="1">
+    <row r="17" spans="1:4" ht="16" customHeight="1">
       <c r="A17" s="152" t="s">
         <v>321</v>
       </c>
@@ -8103,7 +8103,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.95" customHeight="1">
+    <row r="18" spans="1:4" ht="16" customHeight="1">
       <c r="A18" s="152" t="s">
         <v>322</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.95" customHeight="1">
+    <row r="19" spans="1:4" ht="16" customHeight="1">
       <c r="A19" s="152" t="s">
         <v>366</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="15.95" customHeight="1">
+    <row r="20" spans="1:4" ht="16" customHeight="1">
       <c r="A20" s="152" t="s">
         <v>321</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="15.95" customHeight="1">
+    <row r="21" spans="1:4" ht="16" customHeight="1">
       <c r="A21" s="152" t="s">
         <v>322</v>
       </c>
@@ -8145,7 +8145,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15">
+    <row r="22" spans="1:4" ht="15.5">
       <c r="A22" s="156" t="s">
         <v>318</v>
       </c>
@@ -8157,7 +8157,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" ht="15.5">
       <c r="A23" s="152" t="s">
         <v>320</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4" ht="15.5">
       <c r="A24" s="194" t="s">
         <v>321</v>
       </c>
@@ -8179,7 +8179,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4" ht="15.5">
       <c r="A25" s="194" t="s">
         <v>362</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4" ht="15.5">
       <c r="A26" s="194" t="s">
         <v>318</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4" ht="15.5">
       <c r="A27" s="197" t="s">
         <v>362</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1">
+    <row r="28" spans="1:4" ht="16" thickBot="1">
       <c r="A28" s="198" t="s">
         <v>482</v>
       </c>
@@ -8223,7 +8223,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="13.5" thickTop="1">
+    <row r="29" spans="1:4" ht="13" thickTop="1">
       <c r="A29" s="140"/>
       <c r="B29" s="162"/>
       <c r="C29" s="163"/>
@@ -8265,14 +8265,14 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="28" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="56.7265625" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" style="28" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21">
@@ -8283,13 +8283,13 @@
       <c r="C1" s="228"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" ht="13.5" thickBot="1">
+    <row r="2" spans="1:4" ht="13" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="45"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="17.25" thickTop="1" thickBot="1">
+    <row r="3" spans="1:4" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="112" t="s">
         <v>328</v>
       </c>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="15.75">
+    <row r="4" spans="1:4" ht="15.5">
       <c r="A4" s="166"/>
       <c r="B4" s="180" t="s">
         <v>339</v>
@@ -8309,7 +8309,7 @@
       <c r="C4" s="167"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" s="46" customFormat="1" ht="15">
+    <row r="5" spans="1:4" s="46" customFormat="1" ht="15.5">
       <c r="A5" s="168" t="s">
         <v>444</v>
       </c>
@@ -8319,7 +8319,7 @@
       </c>
       <c r="D5" s="47"/>
     </row>
-    <row r="6" spans="1:4" s="46" customFormat="1" ht="15">
+    <row r="6" spans="1:4" s="46" customFormat="1" ht="15.5">
       <c r="A6" s="168" t="s">
         <v>445</v>
       </c>
@@ -8329,7 +8329,7 @@
       </c>
       <c r="D6" s="47"/>
     </row>
-    <row r="7" spans="1:4" ht="15">
+    <row r="7" spans="1:4" ht="15.5">
       <c r="A7" s="61" t="s">
         <v>469</v>
       </c>
@@ -8339,7 +8339,7 @@
       </c>
       <c r="D7" s="44"/>
     </row>
-    <row r="8" spans="1:4" ht="15">
+    <row r="8" spans="1:4" ht="15.5">
       <c r="A8" s="61" t="s">
         <v>446</v>
       </c>
@@ -8349,7 +8349,7 @@
       </c>
       <c r="D8" s="44"/>
     </row>
-    <row r="9" spans="1:4" ht="15">
+    <row r="9" spans="1:4" ht="15.5">
       <c r="A9" s="61" t="s">
         <v>460</v>
       </c>
@@ -8359,7 +8359,7 @@
       </c>
       <c r="D9" s="44"/>
     </row>
-    <row r="10" spans="1:4" ht="15">
+    <row r="10" spans="1:4" ht="15.5">
       <c r="A10" s="61" t="s">
         <v>447</v>
       </c>
@@ -8369,7 +8369,7 @@
       </c>
       <c r="D10" s="44"/>
     </row>
-    <row r="11" spans="1:4" ht="15">
+    <row r="11" spans="1:4" ht="15.5">
       <c r="A11" s="61" t="s">
         <v>448</v>
       </c>
@@ -8379,7 +8379,7 @@
       </c>
       <c r="D11" s="44"/>
     </row>
-    <row r="12" spans="1:4" ht="15">
+    <row r="12" spans="1:4" ht="15.5">
       <c r="A12" s="61" t="s">
         <v>449</v>
       </c>
@@ -8389,7 +8389,7 @@
       </c>
       <c r="D12" s="44"/>
     </row>
-    <row r="13" spans="1:4" ht="15">
+    <row r="13" spans="1:4" ht="15.5">
       <c r="A13" s="61" t="s">
         <v>450</v>
       </c>
@@ -8399,7 +8399,7 @@
       </c>
       <c r="D13" s="44"/>
     </row>
-    <row r="14" spans="1:4" ht="15">
+    <row r="14" spans="1:4" ht="15.5">
       <c r="A14" s="61" t="s">
         <v>451</v>
       </c>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="D14" s="44"/>
     </row>
-    <row r="15" spans="1:4" ht="15">
+    <row r="15" spans="1:4" ht="15.5">
       <c r="A15" s="61" t="s">
         <v>452</v>
       </c>
@@ -8419,7 +8419,7 @@
       </c>
       <c r="D15" s="44"/>
     </row>
-    <row r="16" spans="1:4" ht="15">
+    <row r="16" spans="1:4" ht="15.5">
       <c r="A16" s="61" t="s">
         <v>453</v>
       </c>
@@ -8429,7 +8429,7 @@
       </c>
       <c r="D16" s="44"/>
     </row>
-    <row r="17" spans="1:4" ht="15">
+    <row r="17" spans="1:4" ht="15.5">
       <c r="A17" s="178" t="s">
         <v>454</v>
       </c>
@@ -8439,7 +8439,7 @@
       </c>
       <c r="D17" s="44"/>
     </row>
-    <row r="18" spans="1:4" ht="15">
+    <row r="18" spans="1:4" ht="15.5">
       <c r="A18" s="61" t="s">
         <v>455</v>
       </c>
@@ -8449,7 +8449,7 @@
       </c>
       <c r="D18" s="44"/>
     </row>
-    <row r="19" spans="1:4" ht="15">
+    <row r="19" spans="1:4" ht="15.5">
       <c r="A19" s="61" t="s">
         <v>456</v>
       </c>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="D19" s="44"/>
     </row>
-    <row r="20" spans="1:4" ht="15">
+    <row r="20" spans="1:4" ht="15.5">
       <c r="A20" s="61" t="s">
         <v>457</v>
       </c>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="D20" s="44"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75">
+    <row r="21" spans="1:4" ht="15.5">
       <c r="A21" s="61"/>
       <c r="B21" s="181" t="s">
         <v>340</v>
@@ -8477,7 +8477,7 @@
       <c r="C21" s="172"/>
       <c r="D21" s="44"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75">
+    <row r="22" spans="1:4" ht="15.5">
       <c r="A22" s="61" t="s">
         <v>458</v>
       </c>
@@ -8487,7 +8487,7 @@
       </c>
       <c r="D22" s="44"/>
     </row>
-    <row r="23" spans="1:4" ht="15">
+    <row r="23" spans="1:4" ht="15.5">
       <c r="A23" s="61" t="s">
         <v>329</v>
       </c>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="D23" s="44"/>
     </row>
-    <row r="24" spans="1:4" ht="15">
+    <row r="24" spans="1:4" ht="15.5">
       <c r="A24" s="61" t="s">
         <v>330</v>
       </c>
@@ -8507,7 +8507,7 @@
       </c>
       <c r="D24" s="44"/>
     </row>
-    <row r="25" spans="1:4" ht="15">
+    <row r="25" spans="1:4" ht="15.5">
       <c r="A25" s="61" t="s">
         <v>331</v>
       </c>
@@ -8517,7 +8517,7 @@
       </c>
       <c r="D25" s="44"/>
     </row>
-    <row r="26" spans="1:4" ht="15">
+    <row r="26" spans="1:4" ht="15.5">
       <c r="A26" s="61" t="s">
         <v>332</v>
       </c>
@@ -8527,7 +8527,7 @@
       </c>
       <c r="D26" s="44"/>
     </row>
-    <row r="27" spans="1:4" ht="15">
+    <row r="27" spans="1:4" ht="15.5">
       <c r="A27" s="152" t="s">
         <v>333</v>
       </c>
@@ -8537,7 +8537,7 @@
       </c>
       <c r="D27" s="44"/>
     </row>
-    <row r="28" spans="1:4" ht="15">
+    <row r="28" spans="1:4" ht="15.5">
       <c r="A28" s="61" t="s">
         <v>334</v>
       </c>
@@ -8547,7 +8547,7 @@
       </c>
       <c r="D28" s="44"/>
     </row>
-    <row r="29" spans="1:4" ht="15">
+    <row r="29" spans="1:4" ht="15.5">
       <c r="A29" s="61" t="s">
         <v>335</v>
       </c>
@@ -8557,7 +8557,7 @@
       </c>
       <c r="D29" s="44"/>
     </row>
-    <row r="30" spans="1:4" ht="15">
+    <row r="30" spans="1:4" ht="15.5">
       <c r="A30" s="61" t="s">
         <v>336</v>
       </c>
@@ -8567,7 +8567,7 @@
       </c>
       <c r="D30" s="44"/>
     </row>
-    <row r="31" spans="1:4" ht="15.75">
+    <row r="31" spans="1:4" ht="15.5">
       <c r="A31" s="175" t="s">
         <v>337</v>
       </c>
@@ -8579,7 +8579,7 @@
       </c>
       <c r="D31" s="44"/>
     </row>
-    <row r="32" spans="1:4" ht="15">
+    <row r="32" spans="1:4" ht="15.5">
       <c r="A32" s="175" t="s">
         <v>374</v>
       </c>
@@ -8589,7 +8589,7 @@
       </c>
       <c r="D32" s="44"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1">
+    <row r="33" spans="1:4" ht="16" thickBot="1">
       <c r="A33" s="176" t="s">
         <v>375</v>
       </c>
@@ -8599,7 +8599,7 @@
       </c>
       <c r="D33" s="44"/>
     </row>
-    <row r="34" spans="1:4" ht="13.5" thickTop="1"/>
+    <row r="34" spans="1:4" ht="13" thickTop="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
@@ -8623,10 +8623,10 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" style="65" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="65"/>
+    <col min="1" max="1" width="36.26953125" style="65" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="65"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18">
@@ -8641,7 +8641,7 @@
       </c>
       <c r="B2" s="253"/>
     </row>
-    <row r="3" spans="1:2" ht="13.5" thickBot="1"/>
+    <row r="3" spans="1:2" ht="13" thickBot="1"/>
     <row r="4" spans="1:2" ht="15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="184" t="s">
         <v>342</v>
@@ -8690,7 +8690,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.45" customHeight="1">
+    <row r="10" spans="1:2" ht="14.5" customHeight="1">
       <c r="A10" s="89" t="s">
         <v>344</v>
       </c>
@@ -8698,7 +8698,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="14.45" customHeight="1">
+    <row r="11" spans="1:2" ht="14.5" customHeight="1">
       <c r="A11" s="89" t="s">
         <v>346</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="14.45" customHeight="1">
+    <row r="12" spans="1:2" ht="14.5" customHeight="1">
       <c r="A12" s="89" t="s">
         <v>348</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="14.45" customHeight="1">
+    <row r="13" spans="1:2" ht="14.5" customHeight="1">
       <c r="A13" s="89" t="s">
         <v>349</v>
       </c>
@@ -8722,7 +8722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="14.45" customHeight="1">
+    <row r="14" spans="1:2" ht="14.5" customHeight="1">
       <c r="A14" s="89" t="s">
         <v>350</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="14.45" customHeight="1">
+    <row r="15" spans="1:2" ht="14.5" customHeight="1">
       <c r="A15" s="89" t="s">
         <v>352</v>
       </c>
@@ -8738,7 +8738,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="14.45" customHeight="1">
+    <row r="16" spans="1:2" ht="14.5" customHeight="1">
       <c r="A16" s="187" t="s">
         <v>368</v>
       </c>
@@ -8746,7 +8746,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.45" customHeight="1" thickBot="1">
+    <row r="17" spans="1:2" ht="14.5" customHeight="1" thickBot="1">
       <c r="A17" s="91" t="s">
         <v>354</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="13.5" thickTop="1">
+    <row r="18" spans="1:2" ht="13" thickTop="1">
       <c r="A18" s="93"/>
       <c r="B18" s="93"/>
     </row>
